--- a/medicine/Mort/Cimetière_de_West_Terrace/Cimetière_de_West_Terrace.xlsx
+++ b/medicine/Mort/Cimetière_de_West_Terrace/Cimetière_de_West_Terrace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_West_Terrace</t>
+          <t>Cimetière_de_West_Terrace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de West Terrace (en anglais West Terrace Cemetery), est le plus ancien cimetière d'Australie-Méridionale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_West_Terrace</t>
+          <t>Cimetière_de_West_Terrace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Inhumations ou crémations de personnes notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>William et Ann Margaret Bickford, chimistes de fabrication
 Arthur Seaforth Blackburn, officier militaire et récipiendaire de la croix de Victoria de la Première Guerre mondiale
@@ -537,7 +551,7 @@
 Frederick Metters, fondateur de l'entreprise de fabrication de fours et de cuisinières qui est devenue Metters Limited
 Sir John Morphett (avec d'autres membres de sa famille), premier colon, pasteur et homme d'affaires
 Arthur Edward Rossiter, fondateur du fabricant de chaussures Rossi Boots
-Richard Gilbert Symonds, arpenteur pour le colonel Light[1],[2]
+Richard Gilbert Symonds, arpenteur pour le colonel Light,
 Augusta Zadow, femme suffragette et première syndicaliste
 identité inconnue connue sous le nom de The Somerton Man</t>
         </is>
